--- a/gd/世界观/《妲己》世界观工作版.xlsx
+++ b/gd/世界观/《妲己》世界观工作版.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="世界观" sheetId="1" r:id="rId1"/>
     <sheet name="妖怪列传" sheetId="2" r:id="rId2"/>
     <sheet name="山河志" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="204">
   <si>
     <t>商纣王调戏女娲，女娲恼羞成怒，召唤九尾狐妲己下凡，命令她去把商朝败掉，并许诺事成之后成仙。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -306,11 +307,159 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>仙人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类</t>
+    <t>狰狞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狰狞是一种长相十分可怕的怪兽，往往见到狰狞的人都会被吓死，但是小狰狞其实十分单纯胆小，特别想跟人类做朋友。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以小狰狞恳求妲己帮助自己修炼成人，变成人的话，他们就不会再说我是怪物了吧……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是理想总是好的，小狰狞虽然在妲己的帮助下修炼成了人形，但是仍然……不好看（满脸纹身啥的）……她去找人类，还是遭到了排挤。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是小狰狞不气馁，至少他们不会因为我死掉了，我只要在努力，总有一天他们会接受我的！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这时，有一只大妖怪来村子里吃人，大家都很害怕，这时候小狰狞站了出来，“你不能伤害我的朋友！”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大妖怪对小狰狞这种保护人类的行为很不屑，执意要吃人，小狰狞用尽全力，将大妖怪打伤，而自己却因为受伤过重，身死道消。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然她拯救了村子，但是村民们并没有感激，“那个丑女喂饱了妖怪，也算是物尽其用了哈哈哈”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀本是神鸟，五百年一生死，涅槃之时，方圆百里为神炎所噬，朱雀便在这百里神炎中转生，五百年一轮回。她，本以为已经看破了这世间的悲欢。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一次涅槃后，朱雀还没有恢复神力，这时正好被狩猎的某国国君发现，以为祥瑞之兆，命令方士封印了她的神力带回宫中，以求国运长久。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被人类圈养，对朱雀来说简直是奇耻大辱，而正在这时，敌国的军队攻破了国都，敌国的将军一路杀到了圈养朱雀的内庭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>她以为等待她的，只不过是被换去另一个国家继续囚禁，没有想到的是，将军用剑挑开了铁笼和封印的符咒“什么祥瑞之兆，耽于鬼神不修国政，到最后不还是身死国灭，小红鸟，快逃吧，别再被这些人捉住了”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…………</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎是白虎族的遗腹子，白虎一族想来被认为是大凶之兽，所以遭到了大量屠杀，白虎一族几乎灭绝。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云梦泽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白虎从小流落人间，被主角和妲己遇到，被温暖所感动，逐渐从自闭的阴影中走出来，成长为一个三观奇正青年。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在这时，白虎发现，灭绝白虎一族的凶手正是自己的伙伴……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业焰焚天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖火术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凰炎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九霄风雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤雷术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣兽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶兽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -318,19 +467,115 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>鬼怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>器物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>陆吾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>旱魃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜若</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜邪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>白泽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼珠沙华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>天狐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蛟龙</t>
+    <t>虚耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化蛇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -338,15 +583,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉芝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金乌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狰狞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳鼠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位置1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>青鸟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火光兽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳鼠</t>
+    <t>重明鸟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位置2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -354,11 +635,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>狰狞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饕餮</t>
+    <t>当康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿蜀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夔牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通兽形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆吾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，单线条战斗狂，地域狂魔，周围几千里都是他画的三八线，（你踩线了！！！！冲上去就打……大哥不过线跟你说话都听不到啊！！）而且喜欢到了一个新地方就划线！简直就如同狗狗到了新地盘就要撒尿占领一样。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，学霸，强迫症，绝对不允许有一点错误，尤其对那些连自己名字都读不对写不对的妖怪，简直不能忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，妩媚冷艳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -366,7 +679,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>圣兽</t>
+    <t>女，三无少女</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -374,19 +687,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>男，二世祖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>白虎</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>朱雀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄武</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼怪</t>
+    <t>女，御姐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双性别，叛逆小鸟，长大后进化分男女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，老爷子，算命的，灵异爱好者，喜欢十分严肃的说谎（嗯……你明天会有血光之灾呢），让人们都信以为真</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -394,7 +711,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>鬼火</t>
+    <t>女，内心有阴影的好奇宝宝，装成没事人的样子。但是旱魃是需要人们的信仰力支撑的，人们对于旱魃逐渐妖魔化，让她开始越变越丑……</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -402,19 +719,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>曼珠沙华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>树妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沼泥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>器物</t>
+    <t>女，邻家妹子体贴型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女，病娇，狂爱型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -422,95 +731,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>笔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凶兽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进化拟人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狰狞是一种长相十分可怕的怪兽，往往见到狰狞的人都会被吓死，但是小狰狞其实十分单纯胆小，特别想跟人类做朋友。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以小狰狞恳求妲己帮助自己修炼成人，变成人的话，他们就不会再说我是怪物了吧……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可是理想总是好的，小狰狞虽然在妲己的帮助下修炼成了人形，但是仍然……不好看（满脸纹身啥的）……她去找人类，还是遭到了排挤。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是小狰狞不气馁，至少他们不会因为我死掉了，我只要在努力，总有一天他们会接受我的！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这时，有一只大妖怪来村子里吃人，大家都很害怕，这时候小狰狞站了出来，“你不能伤害我的朋友！”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大妖怪对小狰狞这种保护人类的行为很不屑，执意要吃人，小狰狞用尽全力，将大妖怪打伤，而自己却因为受伤过重，身死道消。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然她拯救了村子，但是村民们并没有感激，“那个丑女喂饱了妖怪，也算是物尽其用了哈哈哈”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀本是神鸟，五百年一生死，涅槃之时，方圆百里为神炎所噬，朱雀便在这百里神炎中转生，五百年一轮回。她，本以为已经看破了这世间的悲欢。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在一次涅槃后，朱雀还没有恢复神力，这时正好被狩猎的某国国君发现，以为祥瑞之兆，命令方士封印了她的神力带回宫中，以求国运长久。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被人类圈养，对朱雀来说简直是奇耻大辱，而正在这时，敌国的军队攻破了国都，敌国的将军一路杀到了圈养朱雀的内庭。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>她以为等待她的，只不过是被换去另一个国家继续囚禁，没有想到的是，将军用剑挑开了铁笼和封印的符咒“什么祥瑞之兆，耽于鬼神不修国政，到最后不还是身死国灭，小红鸟，快逃吧，别再被这些人捉住了”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>…………</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白虎是白虎族的遗腹子，白虎一族想来被认为是大凶之兽，所以遭到了大量屠杀，白虎一族几乎灭绝。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆仑山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云梦泽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白虎从小流落人间，被主角和妲己遇到，被温暖所感动，逐渐从自闭的阴影中走出来，成长为一个三观奇正青年。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在这时，白虎发现，灭绝白虎一族的凶手正是自己的伙伴……</t>
+    <t>男，混乱人格，以添乱和杀戮为乐趣，帕里斯通或者西索啥的。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女，性感魅惑大胸。。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，文弱书生，实则腹黑无比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下暂时忽略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女，眼镜娘，戴着眼镜呆萌属性，摘了眼镜中二属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女，帽子娘，特别怕热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉芝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女，不经世事的单纯少女，面部有纹身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化人形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化兽形</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +838,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,16 +867,43 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -564,17 +911,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -875,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1243,277 +1630,856 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AA44"/>
+  <dimension ref="A3:S76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="4.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="4.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="4.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="4.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="4.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="4.625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R9" s="10"/>
+      <c r="S9" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="I20" s="3">
+        <v>9</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="L20" s="3">
+        <v>4</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="O20" s="3">
+        <v>5</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="R20" s="3">
+        <v>4</v>
+      </c>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D31" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1537,16 +2503,173 @@
   <sheetData>
     <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>